--- a/excelout/lootdifs_working.xlsx
+++ b/excelout/lootdifs_working.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\swgPythonJunk\excelout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5041DD6-81DE-4418-B392-2186C412F7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC93B35-1710-40B7-91ED-EDE8FBA2A088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2064" yWindow="396" windowWidth="19884" windowHeight="11532" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2110,12 +2110,18 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -2145,11 +2151,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2454,13 +2461,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D346"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A329" workbookViewId="0">
-      <selection activeCell="B349" sqref="B349"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47:B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="100.109375" customWidth="1"/>
+    <col min="2" max="2" width="110" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2493,7 +2500,7 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
@@ -2507,7 +2514,7 @@
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
@@ -2521,7 +2528,7 @@
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
@@ -2535,7 +2542,7 @@
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
@@ -2549,7 +2556,7 @@
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
@@ -2563,7 +2570,7 @@
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C8" t="s">
@@ -2577,7 +2584,7 @@
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
       <c r="C9" t="s">
@@ -2591,7 +2598,7 @@
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C10" t="s">
@@ -2605,7 +2612,7 @@
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
@@ -2619,7 +2626,7 @@
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C12" t="s">
@@ -2633,7 +2640,7 @@
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C13" t="s">
@@ -2647,7 +2654,7 @@
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C14" t="s">
@@ -2661,7 +2668,7 @@
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C15" t="s">
@@ -2675,7 +2682,7 @@
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C16" t="s">
@@ -2689,7 +2696,7 @@
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C17" t="s">
@@ -2703,7 +2710,7 @@
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C18" t="s">
@@ -2717,7 +2724,7 @@
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C19" t="s">
@@ -2731,7 +2738,7 @@
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="s">
@@ -2745,7 +2752,7 @@
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C21" t="s">
@@ -2759,7 +2766,7 @@
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C22" t="s">
@@ -2773,7 +2780,7 @@
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C23" t="s">
@@ -2787,7 +2794,7 @@
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C24" t="s">
@@ -2801,7 +2808,7 @@
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
@@ -2815,7 +2822,7 @@
       <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C26" t="s">
@@ -2829,7 +2836,7 @@
       <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C27" t="s">
@@ -2843,7 +2850,7 @@
       <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C28" t="s">
@@ -2857,7 +2864,7 @@
       <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C29" t="s">
@@ -2871,7 +2878,7 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C30" t="s">
@@ -2885,7 +2892,7 @@
       <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C31" t="s">
@@ -2899,7 +2906,7 @@
       <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C32" t="s">
@@ -2913,7 +2920,7 @@
       <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C33" t="s">
@@ -2927,7 +2934,7 @@
       <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C34" t="s">
@@ -2941,7 +2948,7 @@
       <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C35" t="s">
@@ -2955,7 +2962,7 @@
       <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C36" t="s">
@@ -2969,7 +2976,7 @@
       <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C37" t="s">
@@ -2983,7 +2990,7 @@
       <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C38" t="s">
@@ -2997,7 +3004,7 @@
       <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C39" t="s">
@@ -3011,7 +3018,7 @@
       <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C40" t="s">
@@ -3025,7 +3032,7 @@
       <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C41" t="s">
@@ -3039,7 +3046,7 @@
       <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C42" t="s">
@@ -3053,7 +3060,7 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C43" t="s">
@@ -3067,7 +3074,7 @@
       <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C44" t="s">
@@ -3081,7 +3088,7 @@
       <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C45" t="s">
@@ -3095,7 +3102,7 @@
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C46" t="s">
@@ -3109,7 +3116,7 @@
       <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C47" t="s">
@@ -3123,7 +3130,7 @@
       <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C48" t="s">
@@ -3137,7 +3144,7 @@
       <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C49" t="s">
@@ -3151,7 +3158,7 @@
       <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C50" t="s">
@@ -3165,7 +3172,7 @@
       <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C51" t="s">
@@ -3179,7 +3186,7 @@
       <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C52" t="s">
@@ -3193,7 +3200,7 @@
       <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C53" t="s">
@@ -3207,7 +3214,7 @@
       <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C54" t="s">
